--- a/Pasta.xlsx
+++ b/Pasta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Facbook" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Facebook" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Instagram" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>cliente_id</t>
   </si>
@@ -32,13 +32,52 @@
     <t>data_venda</t>
   </si>
   <si>
+    <t>Curtidas</t>
+  </si>
+  <si>
+    <t>Compartilhamentos</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
     <t>5.0</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
@@ -46,11 +85,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d.m"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -63,13 +102,22 @@
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -87,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -95,24 +143,51 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -335,7 +410,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="11.75"/>
     <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col customWidth="1" min="7" max="7" width="9.0"/>
+    <col customWidth="1" min="8" max="8" width="17.13"/>
+    <col customWidth="1" min="9" max="9" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -345,163 +424,214 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45326.0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
         <v>2.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="10">
         <v>8080.0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10">
         <v>45308.0</v>
       </c>
+      <c r="G2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4">
-        <v>45476.0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
         <v>9.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>41083.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10">
         <v>45443.0</v>
       </c>
+      <c r="G3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4">
-        <v>45536.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="10">
         <v>40328.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10">
         <v>44997.0</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4">
-        <v>45323.0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
         <v>5.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>36206.0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
         <v>45658.0</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4">
-        <v>45415.0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
         <v>5.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <v>32745.0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12">
         <v>45586.0</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4">
-        <v>45292.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="10">
         <v>37096.0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12">
         <v>45278.0</v>
       </c>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4">
-        <v>45507.0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
         <v>2.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <v>39920.0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10">
         <v>45548.0</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -519,166 +649,216 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="7" max="7" width="9.0"/>
+    <col customWidth="1" min="8" max="8" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45416.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="A2" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="10">
         <v>9176.0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10">
         <v>45332.0</v>
       </c>
+      <c r="G2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4">
-        <v>45353.0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8">
         <v>2.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>40723.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10">
         <v>45455.0</v>
       </c>
+      <c r="G3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4">
-        <v>45352.0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8">
         <v>4.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10">
         <v>40179.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10">
         <v>45443.0</v>
       </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4">
-        <v>45387.0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8">
         <v>3.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>36590.0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
         <v>45374.0</v>
       </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4">
-        <v>45416.0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
         <v>5.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <v>36061.0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
         <v>45289.0</v>
       </c>
+      <c r="G6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="10">
         <v>37754.0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12">
         <v>45613.0</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>7.0</v>
       </c>
-      <c r="B8" s="4">
-        <v>45444.0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8">
         <v>2.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <v>39920.0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
         <v>45548.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
